--- a/DokkanKits/40.xlsx
+++ b/DokkanKits/40.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D82C31E-AED1-44B4-A53E-0F40A83C93AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE05E9A7-E02F-4569-AB9A-C55E87DEDF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="210" windowWidth="11363" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="848" windowWidth="11362" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">

--- a/DokkanKits/40.xlsx
+++ b/DokkanKits/40.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14826E-484C-4AF1-96B0-C0ACC289BCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A0A052-C991-4442-8A1F-929204CE6086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="11415" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -336,6 +336,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -378,7 +379,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +685,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -848,7 +849,8 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>1.4</v>
+        <f>1.45</f>
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
